--- a/listas_excel/productos_manual.xlsx
+++ b/listas_excel/productos_manual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,78 +468,151 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>COS1</t>
+          <t>TALAD1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WEMBLEY</t>
+          <t>DEWALT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Linterna Potente 1000LUM</t>
+          <t>TALADRO1</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ferreteria_general</t>
+          <t>ricky</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PARL3</t>
+          <t>CAD1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WEMBLEY</t>
+          <t>Berger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parlante2</t>
+          <t>CADENA1</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>150</v>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ferreteria_general</t>
+          <t>ricky</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>enchmig001</t>
+          <t>PINT2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>SICA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>enchufe</t>
+          <t>PINTURA2</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
+          <t>ricky</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AMOLA1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DEWALT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AMOLAD1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ricky</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FOC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SICA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FOCO1</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>ferreteria_general</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AMOLA2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DEWALT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AMOLA2</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ricky</t>
         </is>
       </c>
     </row>

--- a/listas_excel/productos_manual.xlsx
+++ b/listas_excel/productos_manual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,7 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>ricky</t>
@@ -509,6 +510,7 @@
       <c r="D3" t="n">
         <v>150</v>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>ricky</t>
@@ -518,22 +520,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PINT2</t>
+          <t>15569</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SICA</t>
+          <t>Chiesa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PINTURA2</t>
+          <t>Carbon G720</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>ricky</t>
@@ -543,76 +546,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AMOLA1</t>
+          <t>PINT6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DEWALT</t>
+          <t>Sorbalok</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AMOLAD1</t>
+          <t>Pintura33</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ricky</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FOC1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SICA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FOCO1</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>ferreteria_general</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AMOLA2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DEWALT</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AMOLA2</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ricky</t>
         </is>
       </c>
     </row>

--- a/listas_excel/productos_manual.xlsx
+++ b/listas_excel/productos_manual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TALAD1</t>
+          <t>PROD002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEWALT</t>
+          <t>SICA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TALADRO1</t>
+          <t>PRODUCTO01</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -486,84 +486,6 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>ricky</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CAD1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Berger</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CADENA1</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>150</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ricky</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>15569</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chiesa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Carbon G720</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ricky</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PINT6</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sorbalok</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Pintura33</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
         <is>
           <t>ferreteria_general</t>
         </is>

--- a/listas_excel/productos_manual.xlsx
+++ b/listas_excel/productos_manual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,8 +484,62 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TERM50A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SICA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TERMICA 50a</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TERM32A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>JELUZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TERMICA 32A JELUZ</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Producto agregado manualmente</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>ferreteria_general</t>
         </is>

--- a/listas_excel/productos_manual.xlsx
+++ b/listas_excel/productos_manual.xlsx
@@ -1,37 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\Documents\gestor_stock\listas_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31FECC2-D200-427B-8876-3C8546B41779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1815" yWindow="1980" windowWidth="21870" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Dueno</t>
+  </si>
+  <si>
+    <t>PROD002</t>
+  </si>
+  <si>
+    <t>SICA</t>
+  </si>
+  <si>
+    <t>PRODUCTO01</t>
+  </si>
+  <si>
+    <t>ferreteria_general</t>
+  </si>
+  <si>
+    <t>TERM50A</t>
+  </si>
+  <si>
+    <t>TERMICA 50a</t>
+  </si>
+  <si>
+    <t>TERM32A</t>
+  </si>
+  <si>
+    <t>JELUZ</t>
+  </si>
+  <si>
+    <t>TERMICA 32A JELUZ</t>
+  </si>
+  <si>
+    <t>Producto agregado manualmente</t>
+  </si>
+  <si>
+    <t>15569</t>
+  </si>
+  <si>
+    <t>Chiesa</t>
+  </si>
+  <si>
+    <t>Carbon G720</t>
+  </si>
+  <si>
+    <t>ricky</t>
+  </si>
+  <si>
+    <t>PROD004</t>
+  </si>
+  <si>
+    <t>PRODUCTOPRUEBA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +123,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,129 +447,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Codigo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Proveedor</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Observaciones</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dueno</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PROD002</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SICA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PRODUCTO01</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>ferreteria_general</t>
-        </is>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TERM50A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SICA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>TERMICA 50a</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ferreteria_general</t>
-        </is>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TERM32A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>JELUZ</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>TERMICA 32A JELUZ</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
         <v>5000</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Producto agregado manualmente</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ferreteria_general</t>
-        </is>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/listas_excel/productos_manual.xlsx
+++ b/listas_excel/productos_manual.xlsx
@@ -1,114 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\Documents\gestor_stock\listas_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31FECC2-D200-427B-8876-3C8546B41779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1980" windowWidth="21870" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
-  <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>Proveedor</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Dueno</t>
-  </si>
-  <si>
-    <t>PROD002</t>
-  </si>
-  <si>
-    <t>SICA</t>
-  </si>
-  <si>
-    <t>PRODUCTO01</t>
-  </si>
-  <si>
-    <t>ferreteria_general</t>
-  </si>
-  <si>
-    <t>TERM50A</t>
-  </si>
-  <si>
-    <t>TERMICA 50a</t>
-  </si>
-  <si>
-    <t>TERM32A</t>
-  </si>
-  <si>
-    <t>JELUZ</t>
-  </si>
-  <si>
-    <t>TERMICA 32A JELUZ</t>
-  </si>
-  <si>
-    <t>Producto agregado manualmente</t>
-  </si>
-  <si>
-    <t>15569</t>
-  </si>
-  <si>
-    <t>Chiesa</t>
-  </si>
-  <si>
-    <t>Carbon G720</t>
-  </si>
-  <si>
-    <t>ricky</t>
-  </si>
-  <si>
-    <t>PROD004</t>
-  </si>
-  <si>
-    <t>PRODUCTOPRUEBA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,125 +420,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Proveedor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Observaciones</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dueño</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PROD002</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SICA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PRODUCTO01</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TERM50A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SICA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TERMICA 50a</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TERM32A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>JELUZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TERMICA 32A JELUZ</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Producto agregado manualmente</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15569</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chiesa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Carbon G720</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ricky</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>5000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PROD004</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SICA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PRODUCTOPRUEBA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/listas_excel/productos_manual.xlsx
+++ b/listas_excel/productos_manual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,595 @@
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5436</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - NEGRO BRILL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5435</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - NEGRO MATE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0026</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - NEGRO SATIN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5437</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - BLANCO BRILL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5445</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - BLANCO MATE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0028</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - BLANCO SATIN</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5441</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - AMARILLO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5451</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - VERDE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5443</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - AZUL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5439</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - ROJO</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>5452</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - BEIGE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5444</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - AZUL MARINO</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5450</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - VERDE OSCURO</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>5453</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - MARRON</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>5447</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - GRAFITO</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5448</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - NARANJA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5449</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - ROSA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5438</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - ALUM METAL</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>5440</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM - DORADO</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/listas_excel/productos_manual.xlsx
+++ b/listas_excel/productos_manual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Código</t>
+          <t>Codigo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Dueño</t>
+          <t>Dueno</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1197,6 +1197,1166 @@
       <c r="G25" t="n">
         <v>1</v>
       </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>5463</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AEROSOL DOBLEA METAL ROJO</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>5467</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AEROSOL DOBLEA METAL PLATA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>5466</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AEROSOL DOBLEA METAL ORO</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>5468</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>AEROSOL DOBLEA METAL CROMADO</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5460</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>AEROSOL DOBLEA METAL - AZUL</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>5464</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AEROSOL DOBLEA METAL - COBRE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>5465</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AEROSOL DOBLEA METAL - BRONCE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>5471</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AEROSOL DOBLEA BARNIZ</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO BLANCO BRILL</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0004</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO BLANCO MATE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0029</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO BLANCO SATIN</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO NEGRO BRILL</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO NEGRO MATE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0027</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO NEGRO SATIN</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO DORADO</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0016</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO VERDE OSCURO</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0017</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO VERDE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO ROJO</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0009</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO AMARILLO</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0012</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO AZUL MARINO</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0014</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO NARANJA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>0011</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO AZUL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0015</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO ROSA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0018</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO BEIGE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0019</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO MARRON</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO CELESTE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>0013</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO GRAFITO</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM CHICO ALUMINIO</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4,500</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>5455</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA FLUOR AMARILLO</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7,500</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>5448</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA FLUOR NARANJA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7,500</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>5454</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA FLUOR VERDE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7,500</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>5457</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA FLUOR ROSA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7,500</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>5458</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA ALTA TEMP  NEGRO</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8,000</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>5459</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA ALTA TEMP  ALUMINIO</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8,000</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>5446</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA COM HIELO</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>5470</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Aerosol DOBLEA PRIMER FONDO</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>5471</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>AEROSOL DOBLEA BARNIZ</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>5462</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DOBLE A</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>AEROSOL DOBLEA METAL VERDE</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ferreteria_general</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
